--- a/Егор Горячкин.xlsx
+++ b/Егор Горячкин.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -33,6 +33,7 @@
     <font>
       <b val="1"/>
     </font>
+    <font/>
   </fonts>
   <fills count="2">
     <fill>
@@ -54,10 +55,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -437,156 +439,1040 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="n"/>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Отчет Январь 2022г.</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n"/>
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Горячкин Егор.</t>
+        </is>
+      </c>
     </row>
     <row r="3"/>
     <row r="4">
-      <c r="A4" s="2" t="n"/>
-      <c r="B4" s="2" t="n"/>
-    </row>
-    <row r="5"/>
-    <row r="6"/>
-    <row r="7"/>
-    <row r="8"/>
-    <row r="9"/>
-    <row r="10"/>
-    <row r="11"/>
-    <row r="12"/>
-    <row r="13"/>
-    <row r="14"/>
-    <row r="15"/>
-    <row r="16"/>
-    <row r="17"/>
-    <row r="18"/>
-    <row r="19"/>
-    <row r="20"/>
-    <row r="21"/>
-    <row r="22"/>
-    <row r="23"/>
-    <row r="24"/>
-    <row r="25"/>
-    <row r="26"/>
-    <row r="27"/>
-    <row r="28"/>
-    <row r="29"/>
-    <row r="30"/>
-    <row r="31"/>
-    <row r="32"/>
-    <row r="33"/>
-    <row r="34"/>
-    <row r="35"/>
-    <row r="36"/>
-    <row r="37"/>
-    <row r="38"/>
-    <row r="39"/>
-    <row r="40"/>
-    <row r="41"/>
-    <row r="42"/>
-    <row r="43"/>
-    <row r="44"/>
-    <row r="45"/>
-    <row r="46"/>
-    <row r="47"/>
-    <row r="48"/>
-    <row r="49"/>
-    <row r="50"/>
-    <row r="51"/>
-    <row r="52"/>
-    <row r="53"/>
-    <row r="54"/>
-    <row r="55"/>
-    <row r="56"/>
-    <row r="57"/>
-    <row r="58"/>
-    <row r="59"/>
-    <row r="60"/>
-    <row r="61"/>
-    <row r="62"/>
-    <row r="63"/>
-    <row r="64"/>
-    <row r="65"/>
-    <row r="66"/>
-    <row r="67"/>
-    <row r="68"/>
-    <row r="69"/>
-    <row r="70"/>
-    <row r="71"/>
-    <row r="72"/>
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>Образцы</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>Баллы</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>Градиент, образец-эталон прикассы S813000224, 14 КК</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>Градиент, образец, S813000391 и S813000392 , ТЗ 287-9 КК</t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>Градиент, образец дисплея из МП, 29 КК</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>Делонги, образцы, шелфтокеры, 6МК</t>
+        </is>
+      </c>
+      <c r="B8" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>Лореаль, Образец, Кассеты Парадайз Эластомерик, ТЗ 232СФ-3</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t>Лореаль, Образцы, Шелфтокеры Redken 2022, ТЗ 225СФ-2</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>Ригла, образец, карман, № 146-1 ЮО</t>
+        </is>
+      </c>
+      <c r="B11" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="inlineStr">
+        <is>
+          <t>Лореаль, Образец/Изменение в МП, навигация Виши, Деркос тираж для стран Экспорта, ТЗ 230СФ -2</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
+        <is>
+          <t>Нинель, Образец,Модуль 175 ЧЯ</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="inlineStr">
+        <is>
+          <t>Градиент, образец, S813000391 и S813000392 , ТЗ 287-8 КК</t>
+        </is>
+      </c>
+      <c r="B14" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>Лореаль, Образцы, Производство решеток Armani LIP MAESTRO MEDITERRANEA, ТЗ 3СФ</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="inlineStr">
+        <is>
+          <t>Бьютидрагс, Образцы, Разработка новых подставок, ТЗ 7СФ</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="inlineStr">
+        <is>
+          <t>Градиент, Образец, Поддон ЗЯ, 444КК-1</t>
+        </is>
+      </c>
+      <c r="B17" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="inlineStr">
+        <is>
+          <t>Градиент, образец, стойка, 445КК-1</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="inlineStr">
+        <is>
+          <t>Градиент, образец печати D215900707, 3 КК</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="inlineStr">
+        <is>
+          <t>КИКИ, образец, Подставки КИ-11, 29МК-1</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="inlineStr">
+        <is>
+          <t>Elemax,Образец, Шелфтокер, № 173 ЧЯ</t>
+        </is>
+      </c>
+      <c r="B21" s="3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="inlineStr">
+        <is>
+          <t>ЭрихКраузе, 2 образца стойки, 405-2 КК</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="inlineStr">
+        <is>
+          <t>Лореаль, Образец, Кассеты Парадайз Эластомерик, ТЗ 232СФ-1</t>
+        </is>
+      </c>
+      <c r="B23" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="inlineStr">
+        <is>
+          <t>Градиент, образцы-эталоны дисплеев и поддонов ВС для сети РИВ ГОШ, 412-9 КК</t>
+        </is>
+      </c>
+      <c r="B24" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="inlineStr">
+        <is>
+          <t>Градиент, образец D215920774 VSПодиум для промоподставки формат РГ, 6-3 КК</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="inlineStr">
+        <is>
+          <t>Градиент, образцы-эталоны S813000403_разработка, 338-6 КК</t>
+        </is>
+      </c>
+      <c r="B26" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="inlineStr">
+        <is>
+          <t>Кики,подставки, Образцы, 9МК</t>
+        </is>
+      </c>
+      <c r="B27" s="3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="inlineStr">
+        <is>
+          <t>Градиент, образцы-эталоны дисплеев и поддонов ВС для сети РИВ ГОШ, 412-7 КК</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="inlineStr">
+        <is>
+          <t>Градиент, образец дисплея с новыми толкателями, 17 КК</t>
+        </is>
+      </c>
+      <c r="B29" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="inlineStr">
+        <is>
+          <t>Инситех, Образец., Подложка, 1МК-3</t>
+        </is>
+      </c>
+      <c r="B30" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="inlineStr">
+        <is>
+          <t>Ninelle-SHU,Образец, кассеты, №86 ЧЯ-53</t>
+        </is>
+      </c>
+      <c r="B31" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="inlineStr">
+        <is>
+          <t>Градиент, образец D215920774 VSПодиум для промоподставки формат РГ, 6-4 КК</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="inlineStr">
+        <is>
+          <t>Elemax,Образец, Шелфтокер, № 173 ЧЯ-3</t>
+        </is>
+      </c>
+      <c r="B33" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="3" t="inlineStr">
+        <is>
+          <t>Лореаль, Образец, бриф на разработку конструктива Redken, ТЗ 190СФ-5</t>
+        </is>
+      </c>
+      <c r="B34" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="inlineStr">
+        <is>
+          <t>Феникс+, образец, стойка, № 145-2 ЮО</t>
+        </is>
+      </c>
+      <c r="B35" s="3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="3" t="inlineStr">
+        <is>
+          <t>Градиент, образец дисплея INF97010003, 8 КК</t>
+        </is>
+      </c>
+      <c r="B36" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="3" t="inlineStr">
+        <is>
+          <t>Лореаль, Образец, бриф на разработку конструктива Redken, ТЗ 190СФ-6</t>
+        </is>
+      </c>
+      <c r="B37" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="3" t="inlineStr">
+        <is>
+          <t>Градиент, образцы-эталоны дисплеев, 10 КК</t>
+        </is>
+      </c>
+      <c r="B38" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="3" t="inlineStr">
+        <is>
+          <t>Лореаль, Образец/Изменение в МП, навигация Виши, Деркос тираж для стран Экспорта, ТЗ 230СФ -3</t>
+        </is>
+      </c>
+      <c r="B39" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="3" t="inlineStr">
+        <is>
+          <t>Градиент, образцы-эталоны ИНФЛЮЕНС малый формат, 141-7 КК</t>
+        </is>
+      </c>
+      <c r="B40" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="3" t="inlineStr">
+        <is>
+          <t>Лореаль, Образцы, Шелфтокеры Redken 2022, ТЗ 225СФ</t>
+        </is>
+      </c>
+      <c r="B41" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="3" t="inlineStr">
+        <is>
+          <t>Elemax,Образец, Шелфтокер, № 173 ЧЯ-1</t>
+        </is>
+      </c>
+      <c r="B42" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="3" t="inlineStr">
+        <is>
+          <t>Градиент, образцы скатывающегося дисплея Глобал ,449 - 3 КК</t>
+        </is>
+      </c>
+      <c r="B43" s="3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="3" t="inlineStr">
+        <is>
+          <t>Градиент, образцы-эталоны S813000403_разработка, 338-7 КК</t>
+        </is>
+      </c>
+      <c r="B44" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="3" t="inlineStr">
+        <is>
+          <t>Градиент, образцы крепления для стойки ЛЕНТА D215920073 , 13 КК</t>
+        </is>
+      </c>
+      <c r="B45" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="3" t="inlineStr">
+        <is>
+          <t>Градиент, изменение в МП образцы накладок, 74-1 КК</t>
+        </is>
+      </c>
+      <c r="B46" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="3" t="inlineStr">
+        <is>
+          <t>Кики, Образец, Стойка, 35МК-4</t>
+        </is>
+      </c>
+      <c r="B47" s="3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="3" t="inlineStr">
+        <is>
+          <t>Градиент, Образец Поддон ЗЯ, 444 КК-2</t>
+        </is>
+      </c>
+      <c r="B48" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="3" t="inlineStr">
+        <is>
+          <t>Лореаль, Образцы ЦП, Производство решеток Armani LIP MAESTRO MEDITERRANEA, ТЗ 3СФ-4</t>
+        </is>
+      </c>
+      <c r="B49" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="3" t="inlineStr">
+        <is>
+          <t>Инситех, Образец, Подложка, 1МК</t>
+        </is>
+      </c>
+      <c r="B50" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="3" t="inlineStr">
+        <is>
+          <t>Вымпелстрой, образец , табличка, № 5-1ЮО</t>
+        </is>
+      </c>
+      <c r="B51" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="3" t="inlineStr">
+        <is>
+          <t>Диваж, Образцы, Фризы на Остров, ТЗ 14СФ</t>
+        </is>
+      </c>
+      <c r="B52" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="3" t="inlineStr">
+        <is>
+          <t>Дека, отбойники из ДСП переговорная комната</t>
+        </is>
+      </c>
+      <c r="B53" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="3" t="inlineStr">
+        <is>
+          <t>Триумф, образцы, подставка, 2МК</t>
+        </is>
+      </c>
+      <c r="B54" s="3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="3" t="inlineStr">
+        <is>
+          <t>Триумф, Образец формовкой, Подставка, 21МК</t>
+        </is>
+      </c>
+      <c r="B55" s="3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="3" t="inlineStr">
+        <is>
+          <t>Градиент, образец палетки Глобал, 447-1 КК</t>
+        </is>
+      </c>
+      <c r="B56" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="3" t="inlineStr">
+        <is>
+          <t>Ригла, образец, витрина, № 143-2 ЮО</t>
+        </is>
+      </c>
+      <c r="B57" s="3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="3" t="inlineStr">
+        <is>
+          <t>Инситех, Образцы - Проработка нанесения клея, Подложка под планшет, 17МК-2</t>
+        </is>
+      </c>
+      <c r="B58" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="3" t="inlineStr">
+        <is>
+          <t>Дека,образца пластика и печати, 5МК</t>
+        </is>
+      </c>
+      <c r="B59" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="3" t="inlineStr">
+        <is>
+          <t>Градиент, образец, стойка, 445-2 КК</t>
+        </is>
+      </c>
+      <c r="B60" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="3" t="inlineStr">
+        <is>
+          <t>Дека, коробки на печать</t>
+        </is>
+      </c>
+      <c r="B61" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="3" t="inlineStr">
+        <is>
+          <t>Americhip, Образец, бейдж из алюминия, 16 ЮЛ</t>
+        </is>
+      </c>
+      <c r="B62" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="3" t="inlineStr">
+        <is>
+          <t>Лореаль, Образец, навигация Виши, Деркос тираж для стран Экспорта, ТЗ 230СФ -1</t>
+        </is>
+      </c>
+      <c r="B63" s="3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="3" t="inlineStr">
+        <is>
+          <t>Кики, Образец, Стойки, 35МК-2</t>
+        </is>
+      </c>
+      <c r="B64" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="3" t="inlineStr">
+        <is>
+          <t>Дека тумбы в переговорную комнату</t>
+        </is>
+      </c>
+      <c r="B65" s="3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="3" t="inlineStr">
+        <is>
+          <t>Кондуктор Крючок двойной 300мм, шаг 50мм с ЦД</t>
+        </is>
+      </c>
+      <c r="B66" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="3" t="inlineStr">
+        <is>
+          <t>Кондуктор Крючок двойной 250мм, шаг 50мм с ЦД</t>
+        </is>
+      </c>
+      <c r="B67" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="3" t="inlineStr">
+        <is>
+          <t>Кондуктор Крючок двойной 200мм, шаг 50мм с ЦД</t>
+        </is>
+      </c>
+      <c r="B68" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="3" t="inlineStr">
+        <is>
+          <t>Кондуктор Крючок двойной 100мм, шаг 50мм с ЦД</t>
+        </is>
+      </c>
+      <c r="B69" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="3" t="inlineStr">
+        <is>
+          <t>Кондуктор Крючок двойной 150мм, шаг 50мм с ЦД</t>
+        </is>
+      </c>
+      <c r="B70" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="3" t="inlineStr">
+        <is>
+          <t>Deka, образец, упоры для гибочных станков, №14 ЮЛ</t>
+        </is>
+      </c>
+      <c r="B71" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="3" t="inlineStr">
+        <is>
+          <t>Спектрум, Образец-сигнал, Стойка-метал № 159 ЧЯ</t>
+        </is>
+      </c>
+      <c r="B72" s="3" t="n">
+        <v>5</v>
+      </c>
+    </row>
     <row r="73">
-      <c r="A73" s="2" t="n"/>
-      <c r="B73" s="2" t="n"/>
-      <c r="C73" s="2" t="n"/>
-    </row>
-    <row r="74"/>
-    <row r="75"/>
+      <c r="A73" s="2" t="inlineStr">
+        <is>
+          <t>Сумма</t>
+        </is>
+      </c>
+      <c r="B73" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="C73" s="2" t="n">
+        <v>6900</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="3" t="n"/>
+      <c r="B74" s="3" t="n"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="3" t="n"/>
+      <c r="B75" s="3" t="n"/>
+    </row>
     <row r="76">
-      <c r="A76" s="2" t="n"/>
-    </row>
-    <row r="77"/>
-    <row r="78"/>
-    <row r="79"/>
-    <row r="80"/>
-    <row r="81"/>
-    <row r="82"/>
-    <row r="83"/>
-    <row r="84"/>
-    <row r="85"/>
-    <row r="86"/>
-    <row r="87"/>
-    <row r="88"/>
-    <row r="89"/>
-    <row r="90"/>
-    <row r="91"/>
-    <row r="92"/>
-    <row r="93"/>
-    <row r="94"/>
-    <row r="95"/>
-    <row r="96"/>
-    <row r="97"/>
-    <row r="98"/>
-    <row r="99"/>
-    <row r="100"/>
-    <row r="101"/>
-    <row r="102"/>
-    <row r="103"/>
-    <row r="104"/>
-    <row r="105"/>
-    <row r="106"/>
-    <row r="107"/>
-    <row r="108"/>
-    <row r="109"/>
-    <row r="110"/>
-    <row r="111"/>
-    <row r="112"/>
-    <row r="113"/>
-    <row r="114"/>
-    <row r="115"/>
-    <row r="116"/>
-    <row r="117"/>
-    <row r="118"/>
-    <row r="119"/>
-    <row r="120"/>
-    <row r="121"/>
-    <row r="122"/>
-    <row r="123"/>
-    <row r="124"/>
-    <row r="125"/>
-    <row r="126"/>
-    <row r="127"/>
-    <row r="128"/>
-    <row r="129"/>
-    <row r="130"/>
-    <row r="131"/>
-    <row r="132"/>
-    <row r="133"/>
-    <row r="134"/>
-    <row r="135"/>
-    <row r="136"/>
-    <row r="137"/>
-    <row r="138"/>
+      <c r="A76" s="2" t="inlineStr">
+        <is>
+          <t>Задания</t>
+        </is>
+      </c>
+      <c r="B76" s="3" t="n"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="3" t="inlineStr">
+        <is>
+          <t>Градиент, эталоны дисплеев под мыло, 419-5 КК</t>
+        </is>
+      </c>
+      <c r="B77" s="3" t="n"/>
+      <c r="C77" s="3" t="n"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="3" t="inlineStr">
+        <is>
+          <t>Градиент, изменение в МП переформатирование ЗЯ, 372-7 КК</t>
+        </is>
+      </c>
+      <c r="B78" s="3" t="n"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="3" t="inlineStr">
+        <is>
+          <t>Градиент, выкрасы дисплеев под мыло, 419-6 КК</t>
+        </is>
+      </c>
+      <c r="B79" s="3" t="n"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="3" t="inlineStr">
+        <is>
+          <t>Градиент, эталоны дисплеев под мыло, 419-6 КК</t>
+        </is>
+      </c>
+      <c r="B80" s="3" t="n"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="3" t="inlineStr">
+        <is>
+          <t>Градиен, ЦП стикеров Shake Foundation, 34 КК</t>
+        </is>
+      </c>
+      <c r="B81" s="3" t="n"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="3" t="inlineStr">
+        <is>
+          <t>Проба ДПС Кроношпан 3КФ</t>
+        </is>
+      </c>
+      <c r="B82" s="3" t="n"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="3" t="inlineStr">
+        <is>
+          <t>Сигналы к бланку 684КК Градиент</t>
+        </is>
+      </c>
+      <c r="B83" s="3" t="n"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="3" t="inlineStr">
+        <is>
+          <t>Сигнал к бланку 20 СФ Лореаль</t>
+        </is>
+      </c>
+      <c r="B84" s="3" t="n"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="3" t="inlineStr">
+        <is>
+          <t>Сигнал коробок к бланку 20 СФ Лореаль</t>
+        </is>
+      </c>
+      <c r="B85" s="3" t="n"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="3" t="inlineStr">
+        <is>
+          <t>Сигнал Коробок к бланку 775 МК Агентство Бус</t>
+        </is>
+      </c>
+      <c r="B86" s="3" t="n"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="3" t="inlineStr">
+        <is>
+          <t>Сигнал коробки к бланку 19 СФ Лореаль</t>
+        </is>
+      </c>
+      <c r="B87" s="3" t="n"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="3" t="inlineStr">
+        <is>
+          <t>Сигнал к бланку 775 МК Агентство Бус</t>
+        </is>
+      </c>
+      <c r="B88" s="3" t="n"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="3" t="inlineStr">
+        <is>
+          <t>Сигнал к бланку 24 СФ Бьюти драгс</t>
+        </is>
+      </c>
+      <c r="B89" s="3" t="n"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="3" t="inlineStr">
+        <is>
+          <t>Сигналы к бланку 759 МК Инситех</t>
+        </is>
+      </c>
+      <c r="B90" s="3" t="n"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="3" t="inlineStr">
+        <is>
+          <t>Сигнал к бланку 680КК Инфлюенс</t>
+        </is>
+      </c>
+      <c r="B91" s="3" t="n"/>
+      <c r="C91" s="3" t="n"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="3" t="inlineStr">
+        <is>
+          <t>Сигнал коробки к бланку 769 СФ Лореаль глорифаер</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="3" t="inlineStr">
+        <is>
+          <t>Сигнал к бланку 768 СФ Лореаль навигация Vichy и Деркос</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="3" t="inlineStr">
+        <is>
+          <t>Сигнал коробки к бланку 769 СФ Лореаль глорифаер</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="3" t="inlineStr">
+        <is>
+          <t>Сигнал к бланку 680 КК Инфлюенс</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="3" t="inlineStr">
+        <is>
+          <t>Сигнал к бланку 760 СФ Лореаль ценники</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="3" t="inlineStr">
+        <is>
+          <t>Сигнал к бланку 765КК Глобал</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="3" t="inlineStr">
+        <is>
+          <t>Сигналы коробок к бланку 766Shu</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="3" t="inlineStr">
+        <is>
+          <t>Сигнал к бланку 684КК Градиент</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="3" t="inlineStr">
+        <is>
+          <t>МРМ, РМ, упаковка № 2ЮО</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="3" t="n"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="3" t="n"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="3" t="n"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="3" t="n"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="3" t="n"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="3" t="n"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="3" t="n"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="3" t="n"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="3" t="n"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="3" t="n"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="3" t="n"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="3" t="n"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="3" t="n"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="3" t="n"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="3" t="n"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="3" t="n"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="3" t="n"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="3" t="n"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="3" t="n"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="3" t="n"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="3" t="n"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="3" t="n"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="3" t="n"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="3" t="n"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="3" t="n"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="3" t="n"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="3" t="n"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="3" t="n"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="3" t="n"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="3" t="n"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="3" t="n"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="3" t="n"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="3" t="n"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="3" t="n"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="3" t="n"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="3" t="n"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="3" t="n"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="3" t="n"/>
+    </row>
     <row r="139"/>
     <row r="140"/>
     <row r="141"/>

--- a/Егор Горячкин.xlsx
+++ b/Егор Горячкин.xlsx
@@ -441,7 +441,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Отчет Январь 2022г.</t>
+          <t>Отчет Декабрь 2021г.</t>
         </is>
       </c>
     </row>
@@ -468,17 +468,17 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>Градиент, образец-эталон прикассы S813000224, 14 КК</t>
+          <t>Градиент, образец упаковки из МГК для календаря, 371 -4 КК</t>
         </is>
       </c>
       <c r="B5" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>Градиент, образец, S813000391 и S813000392 , ТЗ 287-9 КК</t>
+          <t>Градиент, образцы-эталоны BB7000111, 301-6 КК</t>
         </is>
       </c>
       <c r="B6" s="3" t="n">
@@ -488,7 +488,7 @@
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>Градиент, образец дисплея из МП, 29 КК</t>
+          <t>Градиент, образцы дисплеев и поддонов ВС для сети РИВ ГОШ, 412-5 КК</t>
         </is>
       </c>
       <c r="B7" s="3" t="n">
@@ -498,107 +498,107 @@
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>Делонги, образцы, шелфтокеры, 6МК</t>
+          <t>Градиент, образцы-эталоны SS760300053 и 54_, 386-5 КК</t>
         </is>
       </c>
       <c r="B8" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>Лореаль, Образец, Кассеты Парадайз Эластомерик, ТЗ 232СФ-3</t>
+          <t>Лореаль, Образец, Лайнер Бары для Шкафов, 212СФ-2</t>
         </is>
       </c>
       <c r="B9" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>Лореаль, Образцы, Шелфтокеры Redken 2022, ТЗ 225СФ-2</t>
+          <t>Градиент, образцы-эталоны поддонов РБ, 390-3 КК</t>
         </is>
       </c>
       <c r="B10" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>Ригла, образец, карман, № 146-1 ЮО</t>
+          <t>Градиент, образцы кассет Стеллари, 376-1 КК</t>
         </is>
       </c>
       <c r="B11" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>Лореаль, Образец/Изменение в МП, навигация Виши, Деркос тираж для стран Экспорта, ТЗ 230СФ -2</t>
+          <t>Подружка, образцы тендер, 422-1 КК</t>
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>Нинель, Образец,Модуль 175 ЧЯ</t>
+          <t>Градиент, образец дисплеев под мыло, 419-3 КК</t>
         </is>
       </c>
       <c r="B13" s="3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>Градиент, образец, S813000391 и S813000392 , ТЗ 287-8 КК</t>
+          <t>Градиент, образец печати задников, 429 КК</t>
         </is>
       </c>
       <c r="B14" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>Лореаль, Образцы, Производство решеток Armani LIP MAESTRO MEDITERRANEA, ТЗ 3СФ</t>
+          <t>Градиент, образец стрйп-лены BB7000111, 301-4 КК</t>
         </is>
       </c>
       <c r="B15" s="3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>Бьютидрагс, Образцы, Разработка новых подставок, ТЗ 7СФ</t>
+          <t>Кондуктор Крючок одинарный 150 мм, шаг 25 мм с ЦД</t>
         </is>
       </c>
       <c r="B16" s="3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>Градиент, Образец, Поддон ЗЯ, 444КК-1</t>
+          <t>Градиент, образец дисплеев под мыло, 419-2 КК</t>
         </is>
       </c>
       <c r="B17" s="3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>Градиент, образец, стойка, 445КК-1</t>
+          <t>Кондуктор Крючок одинарный 100 мм, шаг 25 мм с ЦД</t>
         </is>
       </c>
       <c r="B18" s="3" t="n">
@@ -608,57 +608,57 @@
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>Градиент, образец печати D215900707, 3 КК</t>
+          <t>Градиент, заготовки для выкрасов BB7000111, 301-3 КК + цветопробы</t>
         </is>
       </c>
       <c r="B19" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>КИКИ, образец, Подставки КИ-11, 29МК-1</t>
+          <t>Лореаль, образец, полка, 215СФ СРОЧНО!!!!</t>
         </is>
       </c>
       <c r="B20" s="3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>Elemax,Образец, Шелфтокер, № 173 ЧЯ</t>
+          <t>БХК " Коломенский", образец , контейнер, № 136-1 ЮО</t>
         </is>
       </c>
       <c r="B21" s="3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>ЭрихКраузе, 2 образца стойки, 405-2 КК</t>
+          <t>Кондуктор Крючок одинарный 300мм, шаг 50мм с ЦД</t>
         </is>
       </c>
       <c r="B22" s="3" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>Лореаль, Образец, Кассеты Парадайз Эластомерик, ТЗ 232СФ-1</t>
+          <t>Кондуктор Крючок одинарный 250мм, шаг 50мм с ЦД</t>
         </is>
       </c>
       <c r="B23" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>Градиент, образцы-эталоны дисплеев и поддонов ВС для сети РИВ ГОШ, 412-9 КК</t>
+          <t>Градиент, образец S813000403_разработка, 338-3 КК</t>
         </is>
       </c>
       <c r="B24" s="3" t="n">
@@ -668,7 +668,7 @@
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>Градиент, образец D215920774 VSПодиум для промоподставки формат РГ, 6-3 КК</t>
+          <t>Диваж, Образец, Поддон на 60см, ТЗ 218СФ</t>
         </is>
       </c>
       <c r="B25" s="3" t="n">
@@ -678,7 +678,7 @@
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>Градиент, образцы-эталоны S813000403_разработка, 338-6 КК</t>
+          <t>SHU, образцы,модули , № 149 ЧЯ-2</t>
         </is>
       </c>
       <c r="B26" s="3" t="n">
@@ -688,47 +688,47 @@
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>Кики,подставки, Образцы, 9МК</t>
+          <t>Градиент, образцы-эталоны BB7000111, 301-5 КК</t>
         </is>
       </c>
       <c r="B27" s="3" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>Градиент, образцы-эталоны дисплеев и поддонов ВС для сети РИВ ГОШ, 412-7 КК</t>
+          <t>КИКИ , образец, подставка, 33МК</t>
         </is>
       </c>
       <c r="B28" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="3" t="inlineStr">
         <is>
-          <t>Градиент, образец дисплея с новыми толкателями, 17 КК</t>
+          <t>Кондуктор Крючок одинарный 200мм, шаг 50мм с ЦД</t>
         </is>
       </c>
       <c r="B29" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="3" t="inlineStr">
         <is>
-          <t>Инситех, Образец., Подложка, 1МК-3</t>
+          <t>Пиком SHU, образец, №ТЗ 150-1ЮО</t>
         </is>
       </c>
       <c r="B30" s="3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="3" t="inlineStr">
         <is>
-          <t>Ninelle-SHU,Образец, кассеты, №86 ЧЯ-53</t>
+          <t>Кондуктор Крючок одинарный 100мм, шаг 50мм с ЦД</t>
         </is>
       </c>
       <c r="B31" s="3" t="n">
@@ -738,17 +738,17 @@
     <row r="32">
       <c r="A32" s="3" t="inlineStr">
         <is>
-          <t>Градиент, образец D215920774 VSПодиум для промоподставки формат РГ, 6-4 КК</t>
+          <t>694КК разработка чертежей и кондуктора</t>
         </is>
       </c>
       <c r="B32" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="3" t="inlineStr">
         <is>
-          <t>Elemax,Образец, Шелфтокер, № 173 ЧЯ-3</t>
+          <t>Градиент, образцы поддонов РБ, 390-2 КК</t>
         </is>
       </c>
       <c r="B33" s="3" t="n">
@@ -758,27 +758,27 @@
     <row r="34">
       <c r="A34" s="3" t="inlineStr">
         <is>
-          <t>Лореаль, Образец, бриф на разработку конструктива Redken, ТЗ 190СФ-5</t>
+          <t>Градиент, образец короба из МГК, 371 КК</t>
         </is>
       </c>
       <c r="B34" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="3" t="inlineStr">
         <is>
-          <t>Феникс+, образец, стойка, № 145-2 ЮО</t>
+          <t>Градиент, образцы дисплеев и поддонов ВС для сети РИВ ГОШ, 412-4 КК</t>
         </is>
       </c>
       <c r="B35" s="3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="3" t="inlineStr">
         <is>
-          <t>Градиент, образец дисплея INF97010003, 8 КК</t>
+          <t>Кондуктор Крючок одинарный 215 мм, шаг 50 мм с ЦД</t>
         </is>
       </c>
       <c r="B36" s="3" t="n">
@@ -788,47 +788,47 @@
     <row r="37">
       <c r="A37" s="3" t="inlineStr">
         <is>
-          <t>Лореаль, Образец, бриф на разработку конструктива Redken, ТЗ 190СФ-6</t>
+          <t>Кондуктор Крючок одинарный 100 мм, шаг 25 мм без ЦД диаметр прутка 4</t>
         </is>
       </c>
       <c r="B37" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="3" t="inlineStr">
         <is>
-          <t>Градиент, образцы-эталоны дисплеев, 10 КК</t>
+          <t>Кондуктор Крючок одинарный 100 мм, шаг 25 мм без ЦД диаметр прутка 3</t>
         </is>
       </c>
       <c r="B38" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="3" t="inlineStr">
         <is>
-          <t>Лореаль, Образец/Изменение в МП, навигация Виши, Деркос тираж для стран Экспорта, ТЗ 230СФ -3</t>
+          <t>Кондуктор Крючок одинарный 150 мм, шаг 25 мм без ЦД</t>
         </is>
       </c>
       <c r="B39" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="3" t="inlineStr">
         <is>
-          <t>Градиент, образцы-эталоны ИНФЛЮЕНС малый формат, 141-7 КК</t>
+          <t>Кондуктор Крючок одинарный 250мм, шаг 50мм без ЦД</t>
         </is>
       </c>
       <c r="B40" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="3" t="inlineStr">
         <is>
-          <t>Лореаль, Образцы, Шелфтокеры Redken 2022, ТЗ 225СФ</t>
+          <t>Градиент, образцы поддонов и дисплея ИНФЛ 99*6 430-1 КК</t>
         </is>
       </c>
       <c r="B41" s="3" t="n">
@@ -838,7 +838,7 @@
     <row r="42">
       <c r="A42" s="3" t="inlineStr">
         <is>
-          <t>Elemax,Образец, Шелфтокер, № 173 ЧЯ-1</t>
+          <t>Градиент, Образец BB7000111, 301-3 КК</t>
         </is>
       </c>
       <c r="B42" s="3" t="n">
@@ -848,7 +848,7 @@
     <row r="43">
       <c r="A43" s="3" t="inlineStr">
         <is>
-          <t>Градиент, образцы скатывающегося дисплея Глобал ,449 - 3 КК</t>
+          <t>Бос Тим (Амвэй), Образцы,Ценникодержатели, 48МК</t>
         </is>
       </c>
       <c r="B43" s="3" t="n">
@@ -858,27 +858,27 @@
     <row r="44">
       <c r="A44" s="3" t="inlineStr">
         <is>
-          <t>Градиент, образцы-эталоны S813000403_разработка, 338-7 КК</t>
+          <t>Кондуктор Крючок одинарный 200мм, шаг 50мм без ЦД</t>
         </is>
       </c>
       <c r="B44" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="3" t="inlineStr">
         <is>
-          <t>Градиент, образцы крепления для стойки ЛЕНТА D215920073 , 13 КК</t>
+          <t>Нинель, Образец, Модуль-Оборудование №165 ЧЯ</t>
         </is>
       </c>
       <c r="B45" s="3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="3" t="inlineStr">
         <is>
-          <t>Градиент, изменение в МП образцы накладок, 74-1 КК</t>
+          <t>Navigator, образец, стойка, № 137-4 ЮО</t>
         </is>
       </c>
       <c r="B46" s="3" t="n">
@@ -888,37 +888,37 @@
     <row r="47">
       <c r="A47" s="3" t="inlineStr">
         <is>
-          <t>Кики, Образец, Стойка, 35МК-4</t>
+          <t>Градиент, Образец BB7000111, 301-2 КК</t>
         </is>
       </c>
       <c r="B47" s="3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="3" t="inlineStr">
         <is>
-          <t>Градиент, Образец Поддон ЗЯ, 444 КК-2</t>
+          <t>Кондуктор Крючок одинарный 150мм, шаг 50мм без ЦД</t>
         </is>
       </c>
       <c r="B48" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="3" t="inlineStr">
         <is>
-          <t>Лореаль, Образцы ЦП, Производство решеток Armani LIP MAESTRO MEDITERRANEA, ТЗ 3СФ-4</t>
+          <t>Инситех, образец, пленка, 32МК</t>
         </is>
       </c>
       <c r="B49" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="3" t="inlineStr">
         <is>
-          <t>Инситех, Образец, Подложка, 1МК</t>
+          <t>Инситех, Образцы подложки, 30МК</t>
         </is>
       </c>
       <c r="B50" s="3" t="n">
@@ -928,17 +928,17 @@
     <row r="51">
       <c r="A51" s="3" t="inlineStr">
         <is>
-          <t>Вымпелстрой, образец , табличка, № 5-1ЮО</t>
+          <t>Кондуктор для Крючок одинарный 100мм, шаг 50мм без ЦД</t>
         </is>
       </c>
       <c r="B51" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="3" t="inlineStr">
         <is>
-          <t>Диваж, Образцы, Фризы на Остров, ТЗ 14СФ</t>
+          <t>Спектрум ,Образец, Ваза-2, 168 ЧЯ</t>
         </is>
       </c>
       <c r="B52" s="3" t="n">
@@ -948,540 +948,795 @@
     <row r="53">
       <c r="A53" s="3" t="inlineStr">
         <is>
-          <t>Дека, отбойники из ДСП переговорная комната</t>
+          <t>Кондуктор для Крючок одинарный 50мм, шаг 50мм без ЦД</t>
         </is>
       </c>
       <c r="B53" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="3" t="inlineStr">
         <is>
-          <t>Триумф, образцы, подставка, 2МК</t>
+          <t>Градиент, образец кассеты S813000334, 432 КК</t>
         </is>
       </c>
       <c r="B54" s="3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="3" t="inlineStr">
         <is>
-          <t>Триумф, Образец формовкой, Подставка, 21МК</t>
+          <t>Лореаль, Образец, Anthelios 2022 Навигация тендер, ТЗ 207СФ-2</t>
         </is>
       </c>
       <c r="B55" s="3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="3" t="inlineStr">
         <is>
-          <t>Градиент, образец палетки Глобал, 447-1 КК</t>
+          <t>Дека, изготовление игрушек, 39МК, Образец</t>
         </is>
       </c>
       <c r="B56" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="3" t="inlineStr">
         <is>
-          <t>Ригла, образец, витрина, № 143-2 ЮО</t>
+          <t>Градиент, образец-эталон SS760300053_, 386-4 КК</t>
         </is>
       </c>
       <c r="B57" s="3" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="3" t="inlineStr">
         <is>
-          <t>Инситех, Образцы - Проработка нанесения клея, Подложка под планшет, 17МК-2</t>
+          <t>38МК Ревлон, образец, Подставка 50см</t>
         </is>
       </c>
       <c r="B58" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="3" t="inlineStr">
         <is>
-          <t>Дека,образца пластика и печати, 5МК</t>
+          <t>Ревлон, Образец, Подставка универсальная, 37МК</t>
         </is>
       </c>
       <c r="B59" s="3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="3" t="inlineStr">
         <is>
-          <t>Градиент, образец, стойка, 445-2 КК</t>
+          <t>Лореаль, Образец, Тендер по Lancome (решетка, заглушка), ТЗ 217СФ-1</t>
         </is>
       </c>
       <c r="B60" s="3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="3" t="inlineStr">
         <is>
-          <t>Дека, коробки на печать</t>
+          <t>Лореаль, Образец., Баретки, 211СФ-2</t>
         </is>
       </c>
       <c r="B61" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="3" t="inlineStr">
         <is>
-          <t>Americhip, Образец, бейдж из алюминия, 16 ЮЛ</t>
+          <t>Градиент,Образец, Дисплей, 442КК-2, МЕГА СРОЧНО!!!</t>
         </is>
       </c>
       <c r="B62" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="3" t="inlineStr">
         <is>
-          <t>Лореаль, Образец, навигация Виши, Деркос тираж для стран Экспорта, ТЗ 230СФ -1</t>
+          <t>Лореаль, Образец, Тендер по Lancome (решетка, заглушка), ТЗ 217СФ-2</t>
         </is>
       </c>
       <c r="B63" s="3" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="3" t="inlineStr">
         <is>
-          <t>Кики, Образец, Стойки, 35МК-2</t>
+          <t>Кондуктор Крючок двойной 300мм, шаг 50мм без ЦД</t>
         </is>
       </c>
       <c r="B64" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="3" t="inlineStr">
         <is>
-          <t>Дека тумбы в переговорную комнату</t>
+          <t>КИКИ, образец, плашка с логотипом, 7МК-5</t>
         </is>
       </c>
       <c r="B65" s="3" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="3" t="inlineStr">
         <is>
-          <t>Кондуктор Крючок двойной 300мм, шаг 50мм с ЦД</t>
+          <t>Градиент, образец, S813000391 и S813000392 , ТЗ 287-7 КК</t>
         </is>
       </c>
       <c r="B66" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="3" t="inlineStr">
         <is>
-          <t>Кондуктор Крючок двойной 250мм, шаг 50мм с ЦД</t>
+          <t>Кондуктор Крючок двойной 250мм, шаг 50мм без ЦД</t>
         </is>
       </c>
       <c r="B67" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="3" t="inlineStr">
         <is>
-          <t>Кондуктор Крючок двойной 200мм, шаг 50мм с ЦД</t>
+          <t>Диваж, Образцы, Образцы пластика и печати, ТЗ 223СФ</t>
         </is>
       </c>
       <c r="B68" s="3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="3" t="inlineStr">
         <is>
-          <t>Кондуктор Крючок двойной 100мм, шаг 50мм с ЦД</t>
+          <t>Ладен,Образец, Карманы из ОС, 24МК-1</t>
         </is>
       </c>
       <c r="B69" s="3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="3" t="inlineStr">
         <is>
-          <t>Кондуктор Крючок двойной 150мм, шаг 50мм с ЦД</t>
+          <t>Кондуктор Крючок двойной 200мм, шаг 50мм без ЦД</t>
         </is>
       </c>
       <c r="B70" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="3" t="inlineStr">
         <is>
-          <t>Deka, образец, упоры для гибочных станков, №14 ЮЛ</t>
+          <t>Кондуктор Крючок двойной 100мм, шаг 50мм без ЦД</t>
         </is>
       </c>
       <c r="B71" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="3" t="inlineStr">
         <is>
-          <t>Спектрум, Образец-сигнал, Стойка-метал № 159 ЧЯ</t>
+          <t>Navigator, образец, стойка, № 137-3 ЮО</t>
         </is>
       </c>
       <c r="B72" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="3" t="inlineStr">
+        <is>
+          <t>Лореаль, Образцы, Запрос Kerastase - ценникодержатели, ТЗ 224СФ-1</t>
+        </is>
+      </c>
+      <c r="B73" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C73" s="3" t="n"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="3" t="inlineStr">
+        <is>
+          <t>Лореаль, Образец, Кассеты Парадайз Эластомерик, ТЗ 232СФ</t>
+        </is>
+      </c>
+      <c r="B74" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="3" t="inlineStr">
+        <is>
+          <t>Градиент, образцы кассет , 353-8 КК</t>
+        </is>
+      </c>
+      <c r="B75" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="3" t="inlineStr">
+        <is>
+          <t>Кики, Образец, Стойки, 35МК-1</t>
+        </is>
+      </c>
+      <c r="B76" s="3" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="2" t="inlineStr">
-        <is>
-          <t>Сумма</t>
-        </is>
-      </c>
-      <c r="B73" s="2" t="n">
-        <v>138</v>
-      </c>
-      <c r="C73" s="2" t="n">
-        <v>6900</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="3" t="n"/>
-      <c r="B74" s="3" t="n"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="3" t="n"/>
-      <c r="B75" s="3" t="n"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="2" t="inlineStr">
-        <is>
-          <t>Задания</t>
-        </is>
-      </c>
-      <c r="B76" s="3" t="n"/>
     </row>
     <row r="77">
       <c r="A77" s="3" t="inlineStr">
         <is>
-          <t>Градиент, эталоны дисплеев под мыло, 419-5 КК</t>
-        </is>
-      </c>
-      <c r="B77" s="3" t="n"/>
+          <t>Градиент, образцы-эталоны дисплеев и поддонов ВС для сети РИВ ГОШ, 412-6 КК</t>
+        </is>
+      </c>
+      <c r="B77" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="C77" s="3" t="n"/>
     </row>
     <row r="78">
       <c r="A78" s="3" t="inlineStr">
         <is>
-          <t>Градиент, изменение в МП переформатирование ЗЯ, 372-7 КК</t>
-        </is>
-      </c>
-      <c r="B78" s="3" t="n"/>
+          <t>Нинель, Образец, Модуль № 170 ЧЯ-1</t>
+        </is>
+      </c>
+      <c r="B78" s="3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="3" t="inlineStr">
         <is>
-          <t>Градиент, выкрасы дисплеев под мыло, 419-6 КК</t>
-        </is>
-      </c>
-      <c r="B79" s="3" t="n"/>
+          <t>Градиент, Образцы, Эталоны, Дисплеи, 443КК</t>
+        </is>
+      </c>
+      <c r="B79" s="3" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="3" t="inlineStr">
         <is>
-          <t>Градиент, эталоны дисплеев под мыло, 419-6 КК</t>
-        </is>
-      </c>
-      <c r="B80" s="3" t="n"/>
+          <t>Градиент, образцы-эталоны поддонов и дисплея ИНФЛ 99*6 430-2 КК</t>
+        </is>
+      </c>
+      <c r="B80" s="3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="3" t="inlineStr">
         <is>
-          <t>Градиен, ЦП стикеров Shake Foundation, 34 КК</t>
-        </is>
-      </c>
-      <c r="B81" s="3" t="n"/>
+          <t>Градиент, образцы-эталоны дисплеев, 372-5 КК</t>
+        </is>
+      </c>
+      <c r="B81" s="3" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="3" t="inlineStr">
         <is>
-          <t>Проба ДПС Кроношпан 3КФ</t>
-        </is>
-      </c>
-      <c r="B82" s="3" t="n"/>
+          <t>Нинель, Образец, Модуль № 170 ЧЯ</t>
+        </is>
+      </c>
+      <c r="B82" s="3" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="3" t="inlineStr">
         <is>
-          <t>Сигналы к бланку 684КК Градиент</t>
-        </is>
-      </c>
-      <c r="B83" s="3" t="n"/>
+          <t>Градиент, образец SS760300054_, 386-3 КК</t>
+        </is>
+      </c>
+      <c r="B83" s="3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="3" t="inlineStr">
         <is>
-          <t>Сигнал к бланку 20 СФ Лореаль</t>
-        </is>
-      </c>
-      <c r="B84" s="3" t="n"/>
+          <t>Градиент, образец S813000403_разработка, 338-5 КК</t>
+        </is>
+      </c>
+      <c r="B84" s="3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="3" t="inlineStr">
         <is>
-          <t>Сигнал коробок к бланку 20 СФ Лореаль</t>
-        </is>
-      </c>
-      <c r="B85" s="3" t="n"/>
+          <t>Лазер Сервис, образцы печати топперов, 439 КК</t>
+        </is>
+      </c>
+      <c r="B85" s="3" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="3" t="inlineStr">
         <is>
-          <t>Сигнал Коробок к бланку 775 МК Агентство Бус</t>
-        </is>
-      </c>
-      <c r="B86" s="3" t="n"/>
+          <t>Градиент, образцы дисплеев и поддонов ВС для сети РИВ ГОШ, 412-3 КК</t>
+        </is>
+      </c>
+      <c r="B86" s="3" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="3" t="inlineStr">
         <is>
-          <t>Сигнал коробки к бланку 19 СФ Лореаль</t>
-        </is>
-      </c>
-      <c r="B87" s="3" t="n"/>
+          <t>Инситех, образцы, подложка, 36МК</t>
+        </is>
+      </c>
+      <c r="B87" s="3" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="3" t="inlineStr">
         <is>
-          <t>Сигнал к бланку 775 МК Агентство Бус</t>
-        </is>
-      </c>
-      <c r="B88" s="3" t="n"/>
+          <t>Нинель,Образец, Наклейка и верхняя панель № 161 ЧЯ-1</t>
+        </is>
+      </c>
+      <c r="B88" s="3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="3" t="inlineStr">
         <is>
-          <t>Сигнал к бланку 24 СФ Бьюти драгс</t>
-        </is>
-      </c>
-      <c r="B89" s="3" t="n"/>
+          <t>Градиент, образец палетки для D215920262, 421 КК</t>
+        </is>
+      </c>
+      <c r="B89" s="3" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="3" t="inlineStr">
         <is>
-          <t>Сигналы к бланку 759 МК Инситех</t>
-        </is>
-      </c>
-      <c r="B90" s="3" t="n"/>
+          <t>Градиент, образец календаря для китайцев, 371 -3 КК</t>
+        </is>
+      </c>
+      <c r="B90" s="3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="3" t="inlineStr">
         <is>
-          <t>Сигнал к бланку 680КК Инфлюенс</t>
-        </is>
-      </c>
-      <c r="B91" s="3" t="n"/>
+          <t>26 ШС доработка кондуктора и чертежа для заказа 672 КК</t>
+        </is>
+      </c>
+      <c r="B91" s="3" t="n">
+        <v>5</v>
+      </c>
       <c r="C91" s="3" t="n"/>
     </row>
     <row r="92">
       <c r="A92" s="3" t="inlineStr">
         <is>
-          <t>Сигнал коробки к бланку 769 СФ Лореаль глорифаер</t>
-        </is>
+          <t>№23 ШС образец таблиц</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="3" t="inlineStr">
         <is>
-          <t>Сигнал к бланку 768 СФ Лореаль навигация Vichy и Деркос</t>
-        </is>
+          <t>DEKA, образец к POPAI 2022, 19 Украли сахар изделие из картона , 39 АН</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="3" t="inlineStr">
         <is>
-          <t>Сигнал коробки к бланку 769 СФ Лореаль глорифаер</t>
-        </is>
+          <t>ПосЛайн,корзина из металла,Образец, 25МК-1</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="3" t="inlineStr">
-        <is>
-          <t>Сигнал к бланку 680 КК Инфлюенс</t>
-        </is>
+      <c r="A95" s="2" t="inlineStr">
+        <is>
+          <t>Сумма</t>
+        </is>
+      </c>
+      <c r="B95" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="C95" s="2" t="n">
+        <v>7550</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="3" t="inlineStr">
-        <is>
-          <t>Сигнал к бланку 760 СФ Лореаль ценники</t>
-        </is>
-      </c>
+      <c r="A96" s="3" t="n"/>
     </row>
     <row r="97">
-      <c r="A97" s="3" t="inlineStr">
-        <is>
-          <t>Сигнал к бланку 765КК Глобал</t>
-        </is>
-      </c>
+      <c r="A97" s="3" t="n"/>
     </row>
     <row r="98">
-      <c r="A98" s="3" t="inlineStr">
-        <is>
-          <t>Сигналы коробок к бланку 766Shu</t>
+      <c r="A98" s="2" t="inlineStr">
+        <is>
+          <t>Задания</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="3" t="inlineStr">
         <is>
-          <t>Сигнал к бланку 684КК Градиент</t>
+          <t>Градиент Stellary кассета S813000364 выкрасы 353КК</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="3" t="inlineStr">
         <is>
-          <t>МРМ, РМ, упаковка № 2ЮО</t>
+          <t>ЦП, шелфтокеры ББ, 425 КК</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="3" t="n"/>
+      <c r="A101" s="3" t="inlineStr">
+        <is>
+          <t>Make Up Academy, сделать 2 вставки, №4-5 ЮЛ</t>
+        </is>
+      </c>
     </row>
     <row r="102">
-      <c r="A102" s="3" t="n"/>
+      <c r="A102" s="3" t="inlineStr">
+        <is>
+          <t>Градиент, РМ S813000391 и S813000392 , ТЗ 287-5 КК</t>
+        </is>
+      </c>
     </row>
     <row r="103">
-      <c r="A103" s="3" t="n"/>
+      <c r="A103" s="3" t="inlineStr">
+        <is>
+          <t>Градиент, выкрасы дисплеев под мыло, 419-4 КК</t>
+        </is>
+      </c>
     </row>
     <row r="104">
-      <c r="A104" s="3" t="n"/>
+      <c r="A104" s="3" t="inlineStr">
+        <is>
+          <t>Градиент, эталоны кассет , 353-10 КК</t>
+        </is>
+      </c>
     </row>
     <row r="105">
-      <c r="A105" s="3" t="n"/>
+      <c r="A105" s="3" t="inlineStr">
+        <is>
+          <t>S813000386 Тест Градиент 3КФ</t>
+        </is>
+      </c>
     </row>
     <row r="106">
-      <c r="A106" s="3" t="n"/>
+      <c r="A106" s="3" t="inlineStr">
+        <is>
+          <t>Лореаль сигнал навигации 719СФ</t>
+        </is>
+      </c>
     </row>
     <row r="107">
-      <c r="A107" s="3" t="n"/>
+      <c r="A107" s="3" t="inlineStr">
+        <is>
+          <t>Сигнал к бланку 728 МК Kiki</t>
+        </is>
+      </c>
     </row>
     <row r="108">
-      <c r="A108" s="3" t="n"/>
+      <c r="A108" s="3" t="inlineStr">
+        <is>
+          <t>Сигнал к бланку 722 МК Инситех</t>
+        </is>
+      </c>
     </row>
     <row r="109">
-      <c r="A109" s="3" t="n"/>
+      <c r="A109" s="3" t="inlineStr">
+        <is>
+          <t>Заказ 766 Сигналы Shu</t>
+        </is>
+      </c>
     </row>
     <row r="110">
-      <c r="A110" s="3" t="n"/>
+      <c r="A110" s="3" t="inlineStr">
+        <is>
+          <t>Сигнал коробки к бланку 711 СФ Лореаль кассета балм нуар</t>
+        </is>
+      </c>
     </row>
     <row r="111">
-      <c r="A111" s="3" t="n"/>
+      <c r="A111" s="3" t="inlineStr">
+        <is>
+          <t>Сигнал коробки к бланку 755КК Градиент</t>
+        </is>
+      </c>
     </row>
     <row r="112">
-      <c r="A112" s="3" t="n"/>
+      <c r="A112" s="3" t="inlineStr">
+        <is>
+          <t>Сигналы к бланку 766 Нинель SHU</t>
+        </is>
+      </c>
     </row>
     <row r="113">
-      <c r="A113" s="3" t="n"/>
+      <c r="A113" s="3" t="inlineStr">
+        <is>
+          <t>Сигнал дисплея к бланку 755КК Градиент</t>
+        </is>
+      </c>
     </row>
     <row r="114">
-      <c r="A114" s="3" t="n"/>
+      <c r="A114" s="3" t="inlineStr">
+        <is>
+          <t>Сигнал коробок к бланку 684КК Градиент</t>
+        </is>
+      </c>
     </row>
     <row r="115">
-      <c r="A115" s="3" t="n"/>
+      <c r="A115" s="3" t="inlineStr">
+        <is>
+          <t>Сигнал к бланку 756 КК Градиент</t>
+        </is>
+      </c>
     </row>
     <row r="116">
-      <c r="A116" s="3" t="n"/>
+      <c r="A116" s="3" t="inlineStr">
+        <is>
+          <t>Сигнал коробок к бланку 756 КК Градиент</t>
+        </is>
+      </c>
     </row>
     <row r="117">
-      <c r="A117" s="3" t="n"/>
+      <c r="A117" s="3" t="inlineStr">
+        <is>
+          <t>Сигнал коробок к бланку 696 ЮО Vivo</t>
+        </is>
+      </c>
     </row>
     <row r="118">
-      <c r="A118" s="3" t="n"/>
+      <c r="A118" s="3" t="inlineStr">
+        <is>
+          <t>Сигнал коробки к бланку 718 СФ Лореаль копакинг</t>
+        </is>
+      </c>
     </row>
     <row r="119">
-      <c r="A119" s="3" t="n"/>
+      <c r="A119" s="3" t="inlineStr">
+        <is>
+          <t>Сигнал к бланку 732 СФ Лореаль лайнер бары</t>
+        </is>
+      </c>
     </row>
     <row r="120">
-      <c r="A120" s="3" t="n"/>
+      <c r="A120" s="3" t="inlineStr">
+        <is>
+          <t>Сигнал коробки к бланку 755 КК градиент</t>
+        </is>
+      </c>
     </row>
     <row r="121">
-      <c r="A121" s="3" t="n"/>
+      <c r="A121" s="3" t="inlineStr">
+        <is>
+          <t>Сигнал коробки к бланку 732 СФ Лореаль лайнер бары</t>
+        </is>
+      </c>
     </row>
     <row r="122">
-      <c r="A122" s="3" t="n"/>
+      <c r="A122" s="3" t="inlineStr">
+        <is>
+          <t>Сигнал к бланку 696 ЮО Vivo</t>
+        </is>
+      </c>
     </row>
     <row r="123">
-      <c r="A123" s="3" t="n"/>
+      <c r="A123" s="3" t="inlineStr">
+        <is>
+          <t>Сигнал коробок к бланку 710 ЮО ИП Сысоева Оксана Игоревна</t>
+        </is>
+      </c>
     </row>
     <row r="124">
-      <c r="A124" s="3" t="n"/>
+      <c r="A124" s="3" t="inlineStr">
+        <is>
+          <t>Сигнал коробки к бланку 704 КК Градиент Глобал</t>
+        </is>
+      </c>
     </row>
     <row r="125">
-      <c r="A125" s="3" t="n"/>
+      <c r="A125" s="3" t="inlineStr">
+        <is>
+          <t>Сигнал к бланку 710 ЮО ИП Сысоева</t>
+        </is>
+      </c>
     </row>
     <row r="126">
-      <c r="A126" s="3" t="n"/>
+      <c r="A126" s="3" t="inlineStr">
+        <is>
+          <t>Сигнал к бланку 730 СФ Лореаль клипсы</t>
+        </is>
+      </c>
     </row>
     <row r="127">
-      <c r="A127" s="3" t="n"/>
+      <c r="A127" s="3" t="inlineStr">
+        <is>
+          <t>Сигналы Кики белые подставки бланки 748, 750, 751 МК</t>
+        </is>
+      </c>
     </row>
     <row r="128">
-      <c r="A128" s="3" t="n"/>
+      <c r="A128" s="3" t="inlineStr">
+        <is>
+          <t>Сигнал к бланку 704 КК Градиент Глобал</t>
+        </is>
+      </c>
     </row>
     <row r="129">
-      <c r="A129" s="3" t="n"/>
+      <c r="A129" s="3" t="inlineStr">
+        <is>
+          <t>Сигнал к бланку 679 КК Градиент комплект дисплеев в шкаф</t>
+        </is>
+      </c>
     </row>
     <row r="130">
-      <c r="A130" s="3" t="n"/>
+      <c r="A130" s="3" t="inlineStr">
+        <is>
+          <t>Сигнал к бланку 727 МК Исток аудио</t>
+        </is>
+      </c>
     </row>
     <row r="131">
-      <c r="A131" s="3" t="n"/>
+      <c r="A131" s="3" t="inlineStr">
+        <is>
+          <t>Сигналы к бланку 716 ЧЯ Нинель</t>
+        </is>
+      </c>
     </row>
     <row r="132">
-      <c r="A132" s="3" t="n"/>
+      <c r="A132" s="3" t="inlineStr">
+        <is>
+          <t>Сигнал к бланку 720 СФ Лореаль шелфтокеры</t>
+        </is>
+      </c>
     </row>
     <row r="133">
-      <c r="A133" s="3" t="n"/>
+      <c r="A133" s="3" t="inlineStr">
+        <is>
+          <t>Нинель Сигнал дисплея к бланку 708</t>
+        </is>
+      </c>
     </row>
     <row r="134">
-      <c r="A134" s="3" t="n"/>
+      <c r="A134" s="3" t="inlineStr">
+        <is>
+          <t>Сигнал коробки к бланку 703КК Градиент BB</t>
+        </is>
+      </c>
     </row>
     <row r="135">
-      <c r="A135" s="3" t="n"/>
+      <c r="A135" s="3" t="inlineStr">
+        <is>
+          <t>Сигнал коробок к бланку 730 СФ Лореаль клипсы</t>
+        </is>
+      </c>
     </row>
     <row r="136">
-      <c r="A136" s="3" t="n"/>
+      <c r="A136" s="3" t="inlineStr">
+        <is>
+          <t>Сигнал коробки к бланку 719СФ Лореаль навигация</t>
+        </is>
+      </c>
     </row>
     <row r="137">
-      <c r="A137" s="3" t="n"/>
+      <c r="A137" s="3" t="inlineStr">
+        <is>
+          <t>Сигнал к бланку 708 ЧЯ Ninelle</t>
+        </is>
+      </c>
     </row>
     <row r="138">
-      <c r="A138" s="3" t="n"/>
-    </row>
-    <row r="139"/>
-    <row r="140"/>
-    <row r="141"/>
-    <row r="142"/>
-    <row r="143"/>
-    <row r="144"/>
-    <row r="145"/>
-    <row r="146"/>
-    <row r="147"/>
+      <c r="A138" s="3" t="inlineStr">
+        <is>
+          <t>Сигнал коробки к бланку 720 СФ Лореаль шелфтокеры</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Сигнал к бланку 719СФ Лореаль навигация</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Сигнал к бланку 731КК Градиент подарок на нг</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Сигнал к бланку 694 КК Градиент ZR4000000001 Zollider Прикассовый дисплей</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Сигнал к бланку 726 СФ Диваж подставки к стойке</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Сигналы к бланку 702СФ БьютиДрагс</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Сигнал к бланку 711 СФ Лореаль кассета балм нуар</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Сигнал коробки к бланку 713 СФ Лореаль копакинг</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Сигнал к бланку 703КК Градиент BB</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Сигнал к бланку 700ЮО Спортмастер</t>
+        </is>
+      </c>
+    </row>
     <row r="148"/>
     <row r="149"/>
     <row r="150"/>
